--- a/3 Statistics/Statistics - 2. Distributions.xlsx
+++ b/3 Statistics/Statistics - 2. Distributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5. Statistics\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/3 Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824E17C1-BB23-4EDD-996D-3E49E2597FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{824E17C1-BB23-4EDD-996D-3E49E2597FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3BADC71-07B9-4209-9BEE-0BFDFF1CEEA7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ds_salaries" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,9 +901,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -919,7 +941,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1025,7 +1047,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1167,7 +1189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,7 +1200,7 @@
   <dimension ref="A1:N710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1758,8 +1780,13 @@
       <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N15" s="2" cm="1">
+        <f t="array" ref="N15:N20">FREQUENCY($G$2:$G$710,M15:M19)</f>
+        <v>340</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1795,8 +1822,13 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2">
+        <f>M15+100000</f>
+        <v>200000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>348</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -1832,8 +1864,13 @@
       <c r="K17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17" s="2">
+        <f t="shared" ref="M17:M19" si="0">M16+100000</f>
+        <v>300000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -1869,8 +1906,13 @@
       <c r="K18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -1906,8 +1948,13 @@
       <c r="K19" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -1944,7 +1991,9 @@
         <v>22</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
